--- a/PMSheets/PM24_01_19.xlsx
+++ b/PMSheets/PM24_01_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herob\project-proposal-walliserwagner\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Admin\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA07832-6ECE-423E-9F9E-7D5BF08F7234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2D407E7-49F3-4B7D-91D2-C2625280F7D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,12 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
@@ -508,6 +514,12 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">

--- a/PMSheets/PM24_01_19.xlsx
+++ b/PMSheets/PM24_01_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Admin\project-proposal-walliserwagner\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herob\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2D407E7-49F3-4B7D-91D2-C2625280F7D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8F771-A4D5-489E-84A8-C7F464DDEE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +457,10 @@
         <v>1.5</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>

--- a/PMSheets/PM24_01_19.xlsx
+++ b/PMSheets/PM24_01_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herob\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8F771-A4D5-489E-84A8-C7F464DDEE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F986D09F-2A67-424F-87CA-570D219A60CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -60,7 +60,13 @@
     <t>Installing json-server</t>
   </si>
   <si>
-    <t>Make post succesful requests to the server using postman</t>
+    <t>Make succesful post requests to the server using postman</t>
+  </si>
+  <si>
+    <t>Make json-server accesible for local network</t>
+  </si>
+  <si>
+    <t>Fixng usability flaws concerning the expension of categorys</t>
   </si>
 </sst>
 </file>
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -412,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10693F31-4188-408C-80D1-C6A02B0240FF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -523,6 +530,46 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4.5</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
